--- a/PLSstatic/results_PLSstatic_with_AIC_BIC_AdjustedR2_LogLikelihood_Residuals.xlsx
+++ b/PLSstatic/results_PLSstatic_with_AIC_BIC_AdjustedR2_LogLikelihood_Residuals.xlsx
@@ -490,31 +490,31 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2582033805674604</v>
+        <v>0.4550319312332322</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7794422206466117</v>
+        <v>0.7785207984001278</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7747294475835051</v>
+        <v>0.7737883368274809</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2203059453264854</v>
+        <v>0.3901806420216862</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8110024965460946</v>
+        <v>0.5359095446178412</v>
       </c>
       <c r="G2" t="n">
-        <v>0.79350272770777</v>
+        <v>0.4929382061565302</v>
       </c>
       <c r="H2" t="n">
-        <v>-148.9208377394731</v>
+        <v>-168.6418104026258</v>
       </c>
       <c r="I2" t="n">
-        <v>307.8416754789462</v>
+        <v>347.2836208052515</v>
       </c>
       <c r="J2" t="n">
-        <v>325.2448700956562</v>
+        <v>364.6868154219615</v>
       </c>
     </row>
     <row r="3">
@@ -522,31 +522,31 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2468385257368356</v>
+        <v>0.4311398805418004</v>
       </c>
       <c r="C3" t="n">
-        <v>0.806038416017581</v>
+        <v>0.802576578552973</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8010436971167462</v>
+        <v>0.7974927136230067</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2227255026184086</v>
+        <v>0.3769268199153417</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7884419990383102</v>
+        <v>0.5700002847912971</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7644920366652888</v>
+        <v>0.5213210717488024</v>
       </c>
       <c r="H3" t="n">
-        <v>-140.0084339213685</v>
+        <v>-154.8579494692745</v>
       </c>
       <c r="I3" t="n">
-        <v>292.016867842737</v>
+        <v>321.7158989385489</v>
       </c>
       <c r="J3" t="n">
-        <v>312.900701382789</v>
+        <v>342.5997324786009</v>
       </c>
     </row>
     <row r="4">
@@ -554,31 +554,31 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2344615762749855</v>
+        <v>0.4069223654520485</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8244216293958256</v>
+        <v>0.8240148040955704</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8191240061448376</v>
+        <v>0.8187049059432816</v>
       </c>
       <c r="E4" t="n">
-        <v>0.219499513946479</v>
+        <v>0.3748515519166212</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8018701931147736</v>
+        <v>0.5776717687493665</v>
       </c>
       <c r="G4" t="n">
-        <v>0.775198872957147</v>
+        <v>0.5208198914656275</v>
       </c>
       <c r="H4" t="n">
-        <v>-119.4674943522318</v>
+        <v>-140.9921846603459</v>
       </c>
       <c r="I4" t="n">
-        <v>252.9349887044636</v>
+        <v>295.9843693206919</v>
       </c>
       <c r="J4" t="n">
-        <v>277.2994611678575</v>
+        <v>320.3488417840858</v>
       </c>
     </row>
     <row r="5">
@@ -586,31 +586,31 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2162633544529043</v>
+        <v>0.3863796922919697</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8460329087210724</v>
+        <v>0.8411693729025989</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8407007150837069</v>
+        <v>0.8356687451243339</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2056537017474372</v>
+        <v>0.3606162054705455</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8528421542171547</v>
+        <v>0.6131341330531762</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8297585705649437</v>
+        <v>0.5524492911791646</v>
       </c>
       <c r="H5" t="n">
-        <v>-88.41607213641095</v>
+        <v>-128.7841684182257</v>
       </c>
       <c r="I5" t="n">
-        <v>192.8321442728219</v>
+        <v>273.5683368364514</v>
       </c>
       <c r="J5" t="n">
-        <v>220.6772556595578</v>
+        <v>301.4134482231873</v>
       </c>
     </row>
     <row r="6">
@@ -618,31 +618,31 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.207139946558666</v>
+        <v>0.3658354831187558</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8617026717889561</v>
+        <v>0.8579625001802358</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8562910372067848</v>
+        <v>0.8524045110568537</v>
       </c>
       <c r="E6" t="n">
-        <v>0.207149563537544</v>
+        <v>0.3555229486032236</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8415319424109894</v>
+        <v>0.6302285823871159</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8130076920449675</v>
+        <v>0.5636697272167968</v>
       </c>
       <c r="H6" t="n">
-        <v>-76.46575018245896</v>
+        <v>-115.5993176653989</v>
       </c>
       <c r="I6" t="n">
-        <v>170.9315003649179</v>
+        <v>249.1986353307978</v>
       </c>
       <c r="J6" t="n">
-        <v>202.2572506749958</v>
+        <v>280.5243856408757</v>
       </c>
     </row>
     <row r="7">
@@ -650,31 +650,31 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2011923253791361</v>
+        <v>0.3461027877466166</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8734086721489766</v>
+        <v>0.8712176488721172</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8678806665659624</v>
+        <v>0.865593965416751</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2047829187007655</v>
+        <v>0.3489711867271373</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8430252898723016</v>
+        <v>0.6409659518932338</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8109896347441999</v>
+        <v>0.5676936971775672</v>
       </c>
       <c r="H7" t="n">
-        <v>-74.52490467644175</v>
+        <v>-103.8268112889457</v>
       </c>
       <c r="I7" t="n">
-        <v>169.0498093528835</v>
+        <v>227.6536225778914</v>
       </c>
       <c r="J7" t="n">
-        <v>203.8561985863034</v>
+        <v>262.4600118113113</v>
       </c>
     </row>
     <row r="8">
@@ -682,31 +682,31 @@
         <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1912071767420555</v>
+        <v>0.3347057841674111</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8832204384812968</v>
+        <v>0.8803259477802978</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8775863368290787</v>
+        <v>0.8745521996468911</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1908189957460074</v>
+        <v>0.3358510955308506</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8732255329845089</v>
+        <v>0.6706055204292469</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8441730509601255</v>
+        <v>0.5951192855276159</v>
       </c>
       <c r="H8" t="n">
-        <v>-56.92215246145511</v>
+        <v>-95.00581615692917</v>
       </c>
       <c r="I8" t="n">
-        <v>135.8443049229102</v>
+        <v>212.0116323138583</v>
       </c>
       <c r="J8" t="n">
-        <v>174.1313330796721</v>
+        <v>250.2986604706202</v>
       </c>
     </row>
     <row r="9">
@@ -714,31 +714,31 @@
         <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>0.184009454033208</v>
+        <v>0.3183557616374194</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8942405716238471</v>
+        <v>0.8915271850480235</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8886497648374425</v>
+        <v>0.88579293932369</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1891215040397849</v>
+        <v>0.3331767162507768</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8780378382793181</v>
+        <v>0.678530003201625</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8468985629463781</v>
+        <v>0.5964525572105506</v>
       </c>
       <c r="H9" t="n">
-        <v>-49.0989284564281</v>
+        <v>-83.18158892310285</v>
       </c>
       <c r="I9" t="n">
-        <v>122.1978569128562</v>
+        <v>190.3631778462057</v>
       </c>
       <c r="J9" t="n">
-        <v>163.9655239929601</v>
+        <v>232.1308449263096</v>
       </c>
     </row>
   </sheetData>
